--- a/meetrapporten/working/metingen.xlsx
+++ b/meetrapporten/working/metingen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jip\Desktop\Vision_Jip_Tim\meetrapporten\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jip\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Meetingen </t>
   </si>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="O15" sqref="J12:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,9 +446,10 @@
     <col min="5" max="5" width="6.77734375" customWidth="1"/>
     <col min="6" max="6" width="6.109375" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +474,26 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>4</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -498,10 +517,10 @@
         <v>27622.2</v>
       </c>
       <c r="H2">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -525,35 +544,35 @@
         <v>66503.199999999997</v>
       </c>
       <c r="H3">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -577,10 +596,10 @@
         <v>16408.599999999999</v>
       </c>
       <c r="H11">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -604,10 +623,29 @@
         <v>22135.200000000001</v>
       </c>
       <c r="H12">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>11897.3</v>
+      </c>
+      <c r="K12">
+        <v>11522.7</v>
+      </c>
+      <c r="L12">
+        <v>13794</v>
+      </c>
+      <c r="M12">
+        <v>13949</v>
+      </c>
+      <c r="N12">
+        <v>14138.6</v>
+      </c>
+      <c r="O12">
+        <f>AVERAGE(J12:N12)</f>
+        <v>13060.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -631,10 +669,29 @@
         <v>22029.599999999999</v>
       </c>
       <c r="H13">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J13">
+        <v>13026.8</v>
+      </c>
+      <c r="K13">
+        <v>13889.3</v>
+      </c>
+      <c r="L13">
+        <v>13740.1</v>
+      </c>
+      <c r="M13">
+        <v>14030.9</v>
+      </c>
+      <c r="N13">
+        <v>14141</v>
+      </c>
+      <c r="O13">
+        <f>AVERAGE(J13:N13)</f>
+        <v>13765.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -658,10 +715,29 @@
         <v>17620.400000000001</v>
       </c>
       <c r="H14">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>10965.8</v>
+      </c>
+      <c r="K14">
+        <v>13431.8</v>
+      </c>
+      <c r="L14">
+        <v>14317</v>
+      </c>
+      <c r="M14">
+        <v>13389.4</v>
+      </c>
+      <c r="N14">
+        <v>13262.3</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(J14:N14)</f>
+        <v>13073.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -685,7 +761,26 @@
         <v>17452.8</v>
       </c>
       <c r="H15">
-        <v>0.17</v>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>11069.8</v>
+      </c>
+      <c r="K15">
+        <v>11589.3</v>
+      </c>
+      <c r="L15">
+        <v>10944</v>
+      </c>
+      <c r="M15">
+        <v>11208</v>
+      </c>
+      <c r="N15">
+        <v>11019.8</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(J15:N15)</f>
+        <v>11166.179999999998</v>
       </c>
     </row>
   </sheetData>

--- a/meetrapporten/working/metingen.xlsx
+++ b/meetrapporten/working/metingen.xlsx
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="O15" sqref="J12:O15"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +449,7 @@
     <col min="15" max="15" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -520,7 +520,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -547,32 +547,32 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -599,7 +599,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -644,8 +644,27 @@
         <f>AVERAGE(J12:N12)</f>
         <v>13060.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>14018</v>
+      </c>
+      <c r="R12">
+        <v>9901</v>
+      </c>
+      <c r="S12">
+        <v>14949</v>
+      </c>
+      <c r="T12">
+        <v>14840</v>
+      </c>
+      <c r="U12">
+        <v>14742</v>
+      </c>
+      <c r="V12">
+        <f>AVERAGE(Q12:U12)</f>
+        <v>13690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -690,8 +709,27 @@
         <f>AVERAGE(J13:N13)</f>
         <v>13765.62</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>14774</v>
+      </c>
+      <c r="R13">
+        <v>14227</v>
+      </c>
+      <c r="S13">
+        <v>15225</v>
+      </c>
+      <c r="T13">
+        <v>12383</v>
+      </c>
+      <c r="U13">
+        <v>14751</v>
+      </c>
+      <c r="V13">
+        <f>AVERAGE(Q13:U13)</f>
+        <v>14272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -736,8 +774,27 @@
         <f>AVERAGE(J14:N14)</f>
         <v>13073.26</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>13797</v>
+      </c>
+      <c r="R14">
+        <v>13994</v>
+      </c>
+      <c r="S14">
+        <v>13521</v>
+      </c>
+      <c r="T14">
+        <v>13276</v>
+      </c>
+      <c r="U14">
+        <v>11729</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(Q14:U14)</f>
+        <v>13263.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -781,6 +838,25 @@
       <c r="O15">
         <f>AVERAGE(J15:N15)</f>
         <v>11166.179999999998</v>
+      </c>
+      <c r="Q15">
+        <v>10974</v>
+      </c>
+      <c r="R15">
+        <v>11491</v>
+      </c>
+      <c r="S15">
+        <v>11184</v>
+      </c>
+      <c r="T15">
+        <v>10052</v>
+      </c>
+      <c r="U15">
+        <v>10778</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGE(Q15:U15)</f>
+        <v>10895.8</v>
       </c>
     </row>
   </sheetData>

--- a/meetrapporten/working/metingen.xlsx
+++ b/meetrapporten/working/metingen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jip\Desktop\Vision_Jip_Tim\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +91,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -108,15 +133,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF95B3D7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF95B3D7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF95B3D7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="S4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W8" sqref="W5:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,9 +560,10 @@
     <col min="6" max="6" width="6.109375" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="23" max="23" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -520,7 +634,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -547,32 +661,121 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q5" s="3">
+        <v>6062</v>
+      </c>
+      <c r="R5" s="4">
+        <v>6070</v>
+      </c>
+      <c r="S5" s="4">
+        <v>6114</v>
+      </c>
+      <c r="T5" s="4">
+        <v>6110</v>
+      </c>
+      <c r="U5" s="4">
+        <v>6205</v>
+      </c>
+      <c r="V5" s="4">
+        <v>6112.2</v>
+      </c>
+      <c r="W5" s="5">
+        <f>STDEV( Q5:U5)</f>
+        <v>56.834848464652389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q6" s="6">
+        <v>6103</v>
+      </c>
+      <c r="R6" s="7">
+        <v>6137</v>
+      </c>
+      <c r="S6" s="7">
+        <v>6128</v>
+      </c>
+      <c r="T6" s="7">
+        <v>6127</v>
+      </c>
+      <c r="U6" s="7">
+        <v>6235</v>
+      </c>
+      <c r="V6" s="7">
+        <v>6146</v>
+      </c>
+      <c r="W6" s="8">
+        <f>STDEV( Q6:U6)</f>
+        <v>51.322509681425359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="9">
+        <v>5981</v>
+      </c>
+      <c r="R7" s="10">
+        <v>5875</v>
+      </c>
+      <c r="S7" s="10">
+        <v>5943</v>
+      </c>
+      <c r="T7" s="10">
+        <v>5885</v>
+      </c>
+      <c r="U7" s="10">
+        <v>6143</v>
+      </c>
+      <c r="V7" s="10">
+        <v>5965.4</v>
+      </c>
+      <c r="W7" s="11">
+        <f>STDEV( Q7:U7)</f>
+        <v>108.30881773890803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="6">
+        <v>5934</v>
+      </c>
+      <c r="R8" s="7">
+        <v>6050</v>
+      </c>
+      <c r="S8" s="7">
+        <v>6101</v>
+      </c>
+      <c r="T8" s="7">
+        <v>6045</v>
+      </c>
+      <c r="U8" s="7">
+        <v>6042</v>
+      </c>
+      <c r="V8" s="7">
+        <v>6034.4</v>
+      </c>
+      <c r="W8" s="8">
+        <f>STDEV( Q8:U8)</f>
+        <v>61.092552737629163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -599,7 +802,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -664,7 +867,7 @@
         <v>13690</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -729,7 +932,7 @@
         <v>14272</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -794,7 +997,7 @@
         <v>13263.4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
